--- a/Implicit_bias_pavlovia/task/incong_train.xlsx
+++ b/Implicit_bias_pavlovia/task/incong_train.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpzjwp/code/psychopy/_psychopyStuff/experiments/openIAT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102D82C6-DCD6-0346-850F-EF9389441014}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BCCAF9-453D-48F4-84FD-F7988E90AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32560" yWindow="3740" windowWidth="11740" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>a</t>
   </si>
@@ -76,15 +76,25 @@
   </si>
   <si>
     <t>stimuli/white_5.jpg</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -111,8 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,19 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -416,87 +428,121 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>